--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_16ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel05/field_16ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -4052,28 +4052,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1925.321637411708</v>
+        <v>2133.526070157304</v>
       </c>
       <c r="AB2" t="n">
-        <v>2634.310003502634</v>
+        <v>2919.184493716463</v>
       </c>
       <c r="AC2" t="n">
-        <v>2382.895154045653</v>
+        <v>2640.581622737332</v>
       </c>
       <c r="AD2" t="n">
-        <v>1925321.637411708</v>
+        <v>2133526.070157304</v>
       </c>
       <c r="AE2" t="n">
-        <v>2634310.003502634</v>
+        <v>2919184.493716463</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.04993534252671e-07</v>
+        <v>8.537166255148814e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.12152777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>2382895.154045653</v>
+        <v>2640581.622737332</v>
       </c>
     </row>
     <row r="3">
@@ -4158,28 +4158,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1331.217463568036</v>
+        <v>1497.763869986758</v>
       </c>
       <c r="AB3" t="n">
-        <v>1821.430462823383</v>
+        <v>2049.306603594368</v>
       </c>
       <c r="AC3" t="n">
-        <v>1647.595695845229</v>
+        <v>1853.723657567203</v>
       </c>
       <c r="AD3" t="n">
-        <v>1331217.463568036</v>
+        <v>1497763.869986758</v>
       </c>
       <c r="AE3" t="n">
-        <v>1821430.462823383</v>
+        <v>2049306.603594368</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.547993351694096e-07</v>
+        <v>1.10697076475937e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.94618055555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>1647595.695845229</v>
+        <v>1853723.657567204</v>
       </c>
     </row>
     <row r="4">
@@ -4264,28 +4264,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1181.501074943274</v>
+        <v>1327.218602461385</v>
       </c>
       <c r="AB4" t="n">
-        <v>1616.581894886076</v>
+        <v>1815.959044639962</v>
       </c>
       <c r="AC4" t="n">
-        <v>1462.297587725088</v>
+        <v>1642.64646213405</v>
       </c>
       <c r="AD4" t="n">
-        <v>1181501.074943274</v>
+        <v>1327218.602461385</v>
       </c>
       <c r="AE4" t="n">
-        <v>1616581.894886076</v>
+        <v>1815959.044639962</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.142501570664078e-07</v>
+        <v>1.207475328900179e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>29</v>
+        <v>28.36805555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>1462297.587725088</v>
+        <v>1642646.46213405</v>
       </c>
     </row>
     <row r="5">
@@ -4370,28 +4370,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1105.600709048733</v>
+        <v>1251.232895712272</v>
       </c>
       <c r="AB5" t="n">
-        <v>1512.731665781346</v>
+        <v>1711.992048413034</v>
       </c>
       <c r="AC5" t="n">
-        <v>1368.358678731401</v>
+        <v>1548.601930108425</v>
       </c>
       <c r="AD5" t="n">
-        <v>1105600.709048733</v>
+        <v>1251232.895712272</v>
       </c>
       <c r="AE5" t="n">
-        <v>1512731.665781346</v>
+        <v>1711992.048413034</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.468582443024134e-07</v>
+        <v>1.262600918262059e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>28</v>
+        <v>27.12673611111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>1368358.678731401</v>
+        <v>1548601.930108425</v>
       </c>
     </row>
     <row r="6">
@@ -4476,28 +4476,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1055.446658915321</v>
+        <v>1200.993504724288</v>
       </c>
       <c r="AB6" t="n">
-        <v>1444.10868174828</v>
+        <v>1643.25229725777</v>
       </c>
       <c r="AC6" t="n">
-        <v>1306.284975981488</v>
+        <v>1486.422604326572</v>
       </c>
       <c r="AD6" t="n">
-        <v>1055446.658915321</v>
+        <v>1200993.504724288</v>
       </c>
       <c r="AE6" t="n">
-        <v>1444108.68174828</v>
+        <v>1643252.29725777</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.670486490691599e-07</v>
+        <v>1.296733799291427e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>27</v>
+        <v>26.41493055555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>1306284.975981488</v>
+        <v>1486422.604326572</v>
       </c>
     </row>
     <row r="7">
@@ -4582,28 +4582,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1015.643662612841</v>
+        <v>1161.27575976783</v>
       </c>
       <c r="AB7" t="n">
-        <v>1389.648466222963</v>
+        <v>1588.908726385102</v>
       </c>
       <c r="AC7" t="n">
-        <v>1257.022366990514</v>
+        <v>1437.265507586311</v>
       </c>
       <c r="AD7" t="n">
-        <v>1015643.662612841</v>
+        <v>1161275.75976783</v>
       </c>
       <c r="AE7" t="n">
-        <v>1389648.466222963</v>
+        <v>1588908.726385102</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.803066258408501e-07</v>
+        <v>1.319147066834411e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>25.96354166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1257022.366990514</v>
+        <v>1437265.507586311</v>
       </c>
     </row>
     <row r="8">
@@ -4688,28 +4688,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>989.9205731254306</v>
+        <v>1125.308867784981</v>
       </c>
       <c r="AB8" t="n">
-        <v>1354.453000363671</v>
+        <v>1539.697238026882</v>
       </c>
       <c r="AC8" t="n">
-        <v>1225.185906995687</v>
+        <v>1392.750694608241</v>
       </c>
       <c r="AD8" t="n">
-        <v>989920.5731254306</v>
+        <v>1125308.867784981</v>
       </c>
       <c r="AE8" t="n">
-        <v>1354453.000363671</v>
+        <v>1539697.238026882</v>
       </c>
       <c r="AF8" t="n">
-        <v>7.9004003484401e-07</v>
+        <v>1.335601877689031e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>26</v>
+        <v>25.64236111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>1225185.906995687</v>
+        <v>1392750.694608241</v>
       </c>
     </row>
     <row r="9">
@@ -4794,28 +4794,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>969.4362981334443</v>
+        <v>1104.654000592403</v>
       </c>
       <c r="AB9" t="n">
-        <v>1326.425511617203</v>
+        <v>1511.436337505566</v>
       </c>
       <c r="AC9" t="n">
-        <v>1199.833322438354</v>
+        <v>1367.186974768257</v>
       </c>
       <c r="AD9" t="n">
-        <v>969436.2981334443</v>
+        <v>1104654.000592403</v>
       </c>
       <c r="AE9" t="n">
-        <v>1326425.511617203</v>
+        <v>1511436.337505566</v>
       </c>
       <c r="AF9" t="n">
-        <v>7.978827816666999e-07</v>
+        <v>1.348860430320092e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>26</v>
+        <v>25.390625</v>
       </c>
       <c r="AH9" t="n">
-        <v>1199833.322438354</v>
+        <v>1367186.974768257</v>
       </c>
     </row>
     <row r="10">
@@ -4900,28 +4900,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>950.993235968403</v>
+        <v>1086.210938427361</v>
       </c>
       <c r="AB10" t="n">
-        <v>1301.190900312515</v>
+        <v>1486.201726200879</v>
       </c>
       <c r="AC10" t="n">
-        <v>1177.007067019586</v>
+        <v>1344.36071934949</v>
       </c>
       <c r="AD10" t="n">
-        <v>950993.2359684031</v>
+        <v>1086210.938427361</v>
       </c>
       <c r="AE10" t="n">
-        <v>1301190.900312515</v>
+        <v>1486201.726200879</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.046518191029501e-07</v>
+        <v>1.360303823959995e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>26</v>
+        <v>25.18229166666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>1177007.067019586</v>
+        <v>1344360.71934949</v>
       </c>
     </row>
     <row r="11">
@@ -5006,28 +5006,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>932.6170851001308</v>
+        <v>1057.590985063652</v>
       </c>
       <c r="AB11" t="n">
-        <v>1276.047839995985</v>
+        <v>1447.04264338542</v>
       </c>
       <c r="AC11" t="n">
-        <v>1154.263625091159</v>
+        <v>1308.93892443782</v>
       </c>
       <c r="AD11" t="n">
-        <v>932617.0851001308</v>
+        <v>1057590.985063652</v>
       </c>
       <c r="AE11" t="n">
-        <v>1276047.839995985</v>
+        <v>1447042.64338542</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.093434622915237e-07</v>
+        <v>1.368235279551791e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>26</v>
+        <v>25.03472222222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>1154263.625091159</v>
+        <v>1308938.92443782</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5112,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>901.1342519255913</v>
+        <v>1036.43720573057</v>
       </c>
       <c r="AB12" t="n">
-        <v>1232.971638722006</v>
+        <v>1418.099109263019</v>
       </c>
       <c r="AC12" t="n">
-        <v>1115.29855600894</v>
+        <v>1282.757720589556</v>
       </c>
       <c r="AD12" t="n">
-        <v>901134.2519255914</v>
+        <v>1036437.20573057</v>
       </c>
       <c r="AE12" t="n">
-        <v>1232971.638722006</v>
+        <v>1418099.109263019</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.1303142061886e-07</v>
+        <v>1.374469956086635e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>25</v>
+        <v>24.921875</v>
       </c>
       <c r="AH12" t="n">
-        <v>1115298.55600894</v>
+        <v>1282757.720589556</v>
       </c>
     </row>
     <row r="13">
@@ -5218,28 +5218,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>891.3642999102808</v>
+        <v>1026.66725371526</v>
       </c>
       <c r="AB13" t="n">
-        <v>1219.603959354795</v>
+        <v>1404.731429895808</v>
       </c>
       <c r="AC13" t="n">
-        <v>1103.20666919888</v>
+        <v>1270.665833779496</v>
       </c>
       <c r="AD13" t="n">
-        <v>891364.2999102809</v>
+        <v>1026667.25371526</v>
       </c>
       <c r="AE13" t="n">
-        <v>1219603.959354795</v>
+        <v>1404731.429895808</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.158324016269636e-07</v>
+        <v>1.379205153454871e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>25</v>
+        <v>24.83506944444444</v>
       </c>
       <c r="AH13" t="n">
-        <v>1103206.66919888</v>
+        <v>1270665.833779496</v>
       </c>
     </row>
     <row r="14">
@@ -5324,28 +5324,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>894.7760841364227</v>
+        <v>1030.079037941402</v>
       </c>
       <c r="AB14" t="n">
-        <v>1224.272113050299</v>
+        <v>1409.399583591312</v>
       </c>
       <c r="AC14" t="n">
-        <v>1107.42930085748</v>
+        <v>1274.888465438096</v>
       </c>
       <c r="AD14" t="n">
-        <v>894776.0841364227</v>
+        <v>1030079.037941402</v>
       </c>
       <c r="AE14" t="n">
-        <v>1224272.113050299</v>
+        <v>1409399.583591312</v>
       </c>
       <c r="AF14" t="n">
-        <v>8.15225522408541e-07</v>
+        <v>1.378179194025086e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>25</v>
+        <v>24.85243055555556</v>
       </c>
       <c r="AH14" t="n">
-        <v>1107429.30085748</v>
+        <v>1274888.465438096</v>
       </c>
     </row>
     <row r="15">
@@ -5430,28 +5430,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>897.9441676897874</v>
+        <v>1033.247121494766</v>
       </c>
       <c r="AB15" t="n">
-        <v>1228.606824733995</v>
+        <v>1413.734295275008</v>
       </c>
       <c r="AC15" t="n">
-        <v>1111.35031374189</v>
+        <v>1278.809478322506</v>
       </c>
       <c r="AD15" t="n">
-        <v>897944.1676897873</v>
+        <v>1033247.121494766</v>
       </c>
       <c r="AE15" t="n">
-        <v>1228606.824733995</v>
+        <v>1413734.295275008</v>
       </c>
       <c r="AF15" t="n">
-        <v>8.151788393917394e-07</v>
+        <v>1.378100274068949e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>25</v>
+        <v>24.85243055555556</v>
       </c>
       <c r="AH15" t="n">
-        <v>1111350.31374189</v>
+        <v>1278809.478322506</v>
       </c>
     </row>
   </sheetData>
@@ -5727,28 +5727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1514.72610137835</v>
+        <v>1706.276208702549</v>
       </c>
       <c r="AB2" t="n">
-        <v>2072.515076905179</v>
+        <v>2334.602384340471</v>
       </c>
       <c r="AC2" t="n">
-        <v>1874.717146758527</v>
+        <v>2111.791209414041</v>
       </c>
       <c r="AD2" t="n">
-        <v>1514726.10137835</v>
+        <v>1706276.208702549</v>
       </c>
       <c r="AE2" t="n">
-        <v>2072515.076905179</v>
+        <v>2334602.384340471</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.830646631588599e-07</v>
+        <v>1.009746140439673e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.94618055555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>1874717.146758527</v>
+        <v>2111791.209414041</v>
       </c>
     </row>
     <row r="3">
@@ -5833,28 +5833,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1123.500494846607</v>
+        <v>1274.688420303917</v>
       </c>
       <c r="AB3" t="n">
-        <v>1537.222942392815</v>
+        <v>1744.084931944036</v>
       </c>
       <c r="AC3" t="n">
-        <v>1390.512542276794</v>
+        <v>1577.631913877872</v>
       </c>
       <c r="AD3" t="n">
-        <v>1123500.494846607</v>
+        <v>1274688.420303917</v>
       </c>
       <c r="AE3" t="n">
-        <v>1537222.942392815</v>
+        <v>1744084.931944036</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.213273152998146e-07</v>
+        <v>1.249188158088142e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.0625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1390512.542276794</v>
+        <v>1577631.913877873</v>
       </c>
     </row>
     <row r="4">
@@ -5939,28 +5939,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1009.836006926829</v>
+        <v>1150.933364540278</v>
       </c>
       <c r="AB4" t="n">
-        <v>1381.702175497674</v>
+        <v>1574.757804960491</v>
       </c>
       <c r="AC4" t="n">
-        <v>1249.834459099358</v>
+        <v>1424.465130241522</v>
       </c>
       <c r="AD4" t="n">
-        <v>1009836.006926829</v>
+        <v>1150933.364540278</v>
       </c>
       <c r="AE4" t="n">
-        <v>1381702.175497674</v>
+        <v>1574757.804960491</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.734595308031888e-07</v>
+        <v>1.339470260097056e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.10069444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>1249834.459099358</v>
+        <v>1424465.130241522</v>
       </c>
     </row>
     <row r="5">
@@ -6045,28 +6045,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>951.7009443918776</v>
+        <v>1082.793075016039</v>
       </c>
       <c r="AB5" t="n">
-        <v>1302.159218199405</v>
+        <v>1481.525254696015</v>
       </c>
       <c r="AC5" t="n">
-        <v>1177.882970006394</v>
+        <v>1340.130563721581</v>
       </c>
       <c r="AD5" t="n">
-        <v>951700.9443918775</v>
+        <v>1082793.075016038</v>
       </c>
       <c r="AE5" t="n">
-        <v>1302159.218199405</v>
+        <v>1481525.254696015</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.999723481365399e-07</v>
+        <v>1.385384918737995e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.19791666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1177882.970006394</v>
+        <v>1340130.563721581</v>
       </c>
     </row>
     <row r="6">
@@ -6151,28 +6151,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>903.986840194766</v>
+        <v>1035.164222164948</v>
       </c>
       <c r="AB6" t="n">
-        <v>1236.874675839203</v>
+        <v>1416.357356988463</v>
       </c>
       <c r="AC6" t="n">
-        <v>1118.829092741619</v>
+        <v>1281.182198707519</v>
       </c>
       <c r="AD6" t="n">
-        <v>903986.8401947661</v>
+        <v>1035164.222164948</v>
       </c>
       <c r="AE6" t="n">
-        <v>1236874.675839203</v>
+        <v>1416357.356988463</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.187582970302987e-07</v>
+        <v>1.417918256099244e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.59895833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1118829.092741619</v>
+        <v>1281182.198707519</v>
       </c>
     </row>
     <row r="7">
@@ -6257,28 +6257,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>875.8555834414781</v>
+        <v>1006.862373211068</v>
       </c>
       <c r="AB7" t="n">
-        <v>1198.384249285896</v>
+        <v>1377.633518660309</v>
       </c>
       <c r="AC7" t="n">
-        <v>1084.012138476907</v>
+        <v>1246.154109160155</v>
       </c>
       <c r="AD7" t="n">
-        <v>875855.5834414781</v>
+        <v>1006862.373211068</v>
       </c>
       <c r="AE7" t="n">
-        <v>1198384.249285896</v>
+        <v>1377633.518660309</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.306142107922982e-07</v>
+        <v>1.43845022093777e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>25.234375</v>
       </c>
       <c r="AH7" t="n">
-        <v>1084012.138476907</v>
+        <v>1246154.109160156</v>
       </c>
     </row>
     <row r="8">
@@ -6363,28 +6363,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>854.2155920320482</v>
+        <v>975.3024956669209</v>
       </c>
       <c r="AB8" t="n">
-        <v>1168.775458350472</v>
+        <v>1334.451901880876</v>
       </c>
       <c r="AC8" t="n">
-        <v>1057.229168992161</v>
+        <v>1207.093685280371</v>
       </c>
       <c r="AD8" t="n">
-        <v>854215.5920320483</v>
+        <v>975302.4956669209</v>
       </c>
       <c r="AE8" t="n">
-        <v>1168775.458350472</v>
+        <v>1334451.901880875</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.375925388518048e-07</v>
+        <v>1.45053522671849e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>26</v>
+        <v>25.02604166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1057229.168992161</v>
+        <v>1207093.685280371</v>
       </c>
     </row>
     <row r="9">
@@ -6469,28 +6469,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>819.7432528053693</v>
+        <v>950.8352939209793</v>
       </c>
       <c r="AB9" t="n">
-        <v>1121.608883008257</v>
+        <v>1300.974797035318</v>
       </c>
       <c r="AC9" t="n">
-        <v>1014.564105401902</v>
+        <v>1176.811588335863</v>
       </c>
       <c r="AD9" t="n">
-        <v>819743.2528053692</v>
+        <v>950835.2939209794</v>
       </c>
       <c r="AE9" t="n">
-        <v>1121608.883008257</v>
+        <v>1300974.797035319</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.440154982422159e-07</v>
+        <v>1.461658450032233e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>25</v>
+        <v>24.83506944444444</v>
       </c>
       <c r="AH9" t="n">
-        <v>1014564.105401902</v>
+        <v>1176811.588335863</v>
       </c>
     </row>
     <row r="10">
@@ -6575,28 +6575,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>813.0228334223176</v>
+        <v>944.1148745379278</v>
       </c>
       <c r="AB10" t="n">
-        <v>1112.413708724388</v>
+        <v>1291.779622751449</v>
       </c>
       <c r="AC10" t="n">
-        <v>1006.246505646177</v>
+        <v>1168.493988580138</v>
       </c>
       <c r="AD10" t="n">
-        <v>813022.8334223176</v>
+        <v>944114.8745379278</v>
       </c>
       <c r="AE10" t="n">
-        <v>1112413.708724387</v>
+        <v>1291779.622751449</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.465750234128309e-07</v>
+        <v>1.466091012706131e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>25</v>
+        <v>24.75694444444444</v>
       </c>
       <c r="AH10" t="n">
-        <v>1006246.505646177</v>
+        <v>1168493.988580137</v>
       </c>
     </row>
     <row r="11">
@@ -6681,28 +6681,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>815.9684067944104</v>
+        <v>947.0604479100205</v>
       </c>
       <c r="AB11" t="n">
-        <v>1116.44397216161</v>
+        <v>1295.809886188672</v>
       </c>
       <c r="AC11" t="n">
-        <v>1009.892126397462</v>
+        <v>1172.139609331422</v>
       </c>
       <c r="AD11" t="n">
-        <v>815968.4067944104</v>
+        <v>947060.4479100205</v>
       </c>
       <c r="AE11" t="n">
-        <v>1116443.97216161</v>
+        <v>1295809.886188672</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.464059981657149e-07</v>
+        <v>1.465798296303138e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>25</v>
+        <v>24.765625</v>
       </c>
       <c r="AH11" t="n">
-        <v>1009892.126397462</v>
+        <v>1172139.609331422</v>
       </c>
     </row>
   </sheetData>
@@ -6978,28 +6978,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>796.1901045034591</v>
+        <v>923.7199717354537</v>
       </c>
       <c r="AB2" t="n">
-        <v>1089.382426410016</v>
+        <v>1263.874416977494</v>
       </c>
       <c r="AC2" t="n">
-        <v>985.4132965912813</v>
+        <v>1143.252016480046</v>
       </c>
       <c r="AD2" t="n">
-        <v>796190.1045034591</v>
+        <v>923719.9717354537</v>
       </c>
       <c r="AE2" t="n">
-        <v>1089382.426410016</v>
+        <v>1263874.416977494</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.288493617811171e-07</v>
+        <v>1.568361352351581e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.22048611111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>985413.2965912813</v>
+        <v>1143252.016480047</v>
       </c>
     </row>
     <row r="3">
@@ -7084,28 +7084,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>656.9677300161568</v>
+        <v>775.2968907808643</v>
       </c>
       <c r="AB3" t="n">
-        <v>898.8922315788111</v>
+        <v>1060.795409651225</v>
       </c>
       <c r="AC3" t="n">
-        <v>813.1032186000992</v>
+        <v>959.5545845898201</v>
       </c>
       <c r="AD3" t="n">
-        <v>656967.7300161568</v>
+        <v>775296.8907808643</v>
       </c>
       <c r="AE3" t="n">
-        <v>898892.2315788111</v>
+        <v>1060795.409651225</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.194618188277947e-07</v>
+        <v>1.739819619953114e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.43402777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>813103.2186000992</v>
+        <v>959554.5845898201</v>
       </c>
     </row>
     <row r="4">
@@ -7190,28 +7190,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>620.1919833531935</v>
+        <v>738.6063954639216</v>
       </c>
       <c r="AB4" t="n">
-        <v>848.5740325631076</v>
+        <v>1010.593855288171</v>
       </c>
       <c r="AC4" t="n">
-        <v>767.5873178764186</v>
+        <v>914.1441961168516</v>
       </c>
       <c r="AD4" t="n">
-        <v>620191.9833531935</v>
+        <v>738606.3954639216</v>
       </c>
       <c r="AE4" t="n">
-        <v>848574.0325631076</v>
+        <v>1010593.855288171</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.367328818569116e-07</v>
+        <v>1.772500187759413e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.96527777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>767587.3178764186</v>
+        <v>914144.1961168516</v>
       </c>
     </row>
     <row r="5">
@@ -7296,28 +7296,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>623.66937027976</v>
+        <v>742.0837823904881</v>
       </c>
       <c r="AB5" t="n">
-        <v>853.3319467675196</v>
+        <v>1015.351769492584</v>
       </c>
       <c r="AC5" t="n">
-        <v>771.8911434269361</v>
+        <v>918.4480216673694</v>
       </c>
       <c r="AD5" t="n">
-        <v>623669.37027976</v>
+        <v>742083.7823904881</v>
       </c>
       <c r="AE5" t="n">
-        <v>853331.9467675197</v>
+        <v>1015351.769492584</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.366251061125802e-07</v>
+        <v>1.772296252858906e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.97395833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>771891.1434269361</v>
+        <v>918448.0216673694</v>
       </c>
     </row>
   </sheetData>
@@ -7593,28 +7593,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1017.727168831528</v>
+        <v>1169.587920440516</v>
       </c>
       <c r="AB2" t="n">
-        <v>1392.499211349177</v>
+        <v>1600.281791324119</v>
       </c>
       <c r="AC2" t="n">
-        <v>1259.601041002928</v>
+        <v>1447.553143169745</v>
       </c>
       <c r="AD2" t="n">
-        <v>1017727.168831528</v>
+        <v>1169587.920440516</v>
       </c>
       <c r="AE2" t="n">
-        <v>1392499.211349177</v>
+        <v>1600281.791324119</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.313798191842362e-07</v>
+        <v>1.332415193302296e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.59027777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>1259601.041002929</v>
+        <v>1447553.143169745</v>
       </c>
     </row>
     <row r="3">
@@ -7699,28 +7699,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>817.2714192457768</v>
+        <v>950.1389092968195</v>
       </c>
       <c r="AB3" t="n">
-        <v>1118.226811282422</v>
+        <v>1300.021972870222</v>
       </c>
       <c r="AC3" t="n">
-        <v>1011.504813854814</v>
+        <v>1175.949700371786</v>
       </c>
       <c r="AD3" t="n">
-        <v>817271.4192457767</v>
+        <v>950138.9092968195</v>
       </c>
       <c r="AE3" t="n">
-        <v>1118226.811282422</v>
+        <v>1300021.972870222</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.400789344834511e-07</v>
+        <v>1.530441374671007e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.63194444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>1011504.813854814</v>
+        <v>1175949.700371786</v>
       </c>
     </row>
     <row r="4">
@@ -7805,28 +7805,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>745.1322226758055</v>
+        <v>868.4178306018553</v>
       </c>
       <c r="AB4" t="n">
-        <v>1019.522779978648</v>
+        <v>1188.207587720228</v>
       </c>
       <c r="AC4" t="n">
-        <v>922.220956766694</v>
+        <v>1074.806723208032</v>
       </c>
       <c r="AD4" t="n">
-        <v>745132.2226758054</v>
+        <v>868417.8306018553</v>
       </c>
       <c r="AE4" t="n">
-        <v>1019522.779978649</v>
+        <v>1188207.587720228</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.812954119232054e-07</v>
+        <v>1.605528845386816e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.390625</v>
       </c>
       <c r="AH4" t="n">
-        <v>922220.9567666941</v>
+        <v>1074806.723208032</v>
       </c>
     </row>
     <row r="5">
@@ -7911,28 +7911,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>696.0379770978466</v>
+        <v>819.4088363699169</v>
       </c>
       <c r="AB5" t="n">
-        <v>952.3498672936306</v>
+        <v>1121.151319687859</v>
       </c>
       <c r="AC5" t="n">
-        <v>861.4589325905594</v>
+        <v>1014.150211282609</v>
       </c>
       <c r="AD5" t="n">
-        <v>696037.9770978466</v>
+        <v>819408.8363699169</v>
       </c>
       <c r="AE5" t="n">
-        <v>952349.8672936306</v>
+        <v>1121151.319687859</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.003441779194398e-07</v>
+        <v>1.640231560120389e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.85243055555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>861458.9325905594</v>
+        <v>1014150.211282609</v>
       </c>
     </row>
     <row r="6">
@@ -8017,28 +8017,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>691.8181430985799</v>
+        <v>815.1890023706502</v>
       </c>
       <c r="AB6" t="n">
-        <v>946.5761042498968</v>
+        <v>1115.377556644125</v>
       </c>
       <c r="AC6" t="n">
-        <v>856.2362093881922</v>
+        <v>1008.927488080242</v>
       </c>
       <c r="AD6" t="n">
-        <v>691818.1430985798</v>
+        <v>815189.0023706502</v>
       </c>
       <c r="AE6" t="n">
-        <v>946576.1042498968</v>
+        <v>1115377.556644125</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.031538064628626e-07</v>
+        <v>1.645350093146044e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.77430555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>856236.2093881922</v>
+        <v>1008927.488080242</v>
       </c>
     </row>
   </sheetData>
@@ -8314,28 +8314,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>637.5534829054041</v>
+        <v>760.7052415897748</v>
       </c>
       <c r="AB2" t="n">
-        <v>872.3288021857452</v>
+        <v>1040.830471489847</v>
       </c>
       <c r="AC2" t="n">
-        <v>789.0749656263002</v>
+        <v>941.4950721055974</v>
       </c>
       <c r="AD2" t="n">
-        <v>637553.4829054041</v>
+        <v>760705.2415897748</v>
       </c>
       <c r="AE2" t="n">
-        <v>872328.8021857452</v>
+        <v>1040830.471489847</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.102207601339236e-07</v>
+        <v>1.783739416307893e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.68402777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>789074.9656263002</v>
+        <v>941495.0721055974</v>
       </c>
     </row>
     <row r="3">
@@ -8420,28 +8420,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>575.9684545735897</v>
+        <v>690.2323119448728</v>
       </c>
       <c r="AB3" t="n">
-        <v>788.0654494824589</v>
+        <v>944.4063001034618</v>
       </c>
       <c r="AC3" t="n">
-        <v>712.8535890406573</v>
+        <v>854.2734883041538</v>
       </c>
       <c r="AD3" t="n">
-        <v>575968.4545735897</v>
+        <v>690232.3119448727</v>
       </c>
       <c r="AE3" t="n">
-        <v>788065.4494824589</v>
+        <v>944406.3001034618</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.585763254646158e-07</v>
+        <v>1.878500744170285e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.33854166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>712853.5890406573</v>
+        <v>854273.4883041538</v>
       </c>
     </row>
   </sheetData>
@@ -8717,28 +8717,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1607.339517876972</v>
+        <v>1800.592600332706</v>
       </c>
       <c r="AB2" t="n">
-        <v>2199.232839174168</v>
+        <v>2463.650232314386</v>
       </c>
       <c r="AC2" t="n">
-        <v>1989.341143646061</v>
+        <v>2228.522911897118</v>
       </c>
       <c r="AD2" t="n">
-        <v>1607339.517876972</v>
+        <v>1800592.600332706</v>
       </c>
       <c r="AE2" t="n">
-        <v>2199232.839174168</v>
+        <v>2463650.232314386</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.625839067285142e-07</v>
+        <v>9.679150390498109e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.91840277777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>1989341.14364606</v>
+        <v>2228522.911897118</v>
       </c>
     </row>
     <row r="3">
@@ -8823,28 +8823,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1172.168373165047</v>
+        <v>1324.803970515288</v>
       </c>
       <c r="AB3" t="n">
-        <v>1603.812480583362</v>
+        <v>1812.655238685269</v>
       </c>
       <c r="AC3" t="n">
-        <v>1450.746868401439</v>
+        <v>1639.657966782753</v>
       </c>
       <c r="AD3" t="n">
-        <v>1172168.373165047</v>
+        <v>1324803.970515288</v>
       </c>
       <c r="AE3" t="n">
-        <v>1603812.480583362</v>
+        <v>1812655.238685269</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.035768620005008e-07</v>
+        <v>1.210490768955446e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.52256944444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>1450746.868401439</v>
+        <v>1639657.966782752</v>
       </c>
     </row>
     <row r="4">
@@ -8929,28 +8929,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1047.76532267338</v>
+        <v>1190.054621333013</v>
       </c>
       <c r="AB4" t="n">
-        <v>1433.598738625418</v>
+        <v>1628.285234412351</v>
       </c>
       <c r="AC4" t="n">
-        <v>1296.778087079475</v>
+        <v>1472.883976952715</v>
       </c>
       <c r="AD4" t="n">
-        <v>1047765.32267338</v>
+        <v>1190054.621333013</v>
       </c>
       <c r="AE4" t="n">
-        <v>1433598.738625418</v>
+        <v>1628285.234412351</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.587344930089749e-07</v>
+        <v>1.305388436544124e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.37847222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>1296778.087079474</v>
+        <v>1472883.976952715</v>
       </c>
     </row>
     <row r="5">
@@ -9035,28 +9035,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>985.6900840511998</v>
+        <v>1127.894041856261</v>
       </c>
       <c r="AB5" t="n">
-        <v>1348.664658576302</v>
+        <v>1543.234387241038</v>
       </c>
       <c r="AC5" t="n">
-        <v>1219.949996424516</v>
+        <v>1395.950263265818</v>
       </c>
       <c r="AD5" t="n">
-        <v>985690.0840511998</v>
+        <v>1127894.041856261</v>
       </c>
       <c r="AE5" t="n">
-        <v>1348664.658576302</v>
+        <v>1543234.387241038</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.867081462189125e-07</v>
+        <v>1.35351658119105e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.40625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1219949.996424516</v>
+        <v>1395950.263265818</v>
       </c>
     </row>
     <row r="6">
@@ -9141,28 +9141,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>941.4928750665456</v>
+        <v>1083.782084217627</v>
       </c>
       <c r="AB6" t="n">
-        <v>1288.192087400251</v>
+        <v>1482.878460717636</v>
       </c>
       <c r="AC6" t="n">
-        <v>1165.24884256772</v>
+        <v>1341.354621659735</v>
       </c>
       <c r="AD6" t="n">
-        <v>941492.8750665456</v>
+        <v>1083782.084217628</v>
       </c>
       <c r="AE6" t="n">
-        <v>1288192.087400251</v>
+        <v>1482878.460717635</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.036502732271553e-07</v>
+        <v>1.382665192320241e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.85069444444444</v>
       </c>
       <c r="AH6" t="n">
-        <v>1165248.84256772</v>
+        <v>1341354.621659735</v>
       </c>
     </row>
     <row r="7">
@@ -9247,28 +9247,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>912.455719922239</v>
+        <v>1044.569312091856</v>
       </c>
       <c r="AB7" t="n">
-        <v>1248.462170702936</v>
+        <v>1429.225815949742</v>
       </c>
       <c r="AC7" t="n">
-        <v>1129.310693358709</v>
+        <v>1292.822510006529</v>
       </c>
       <c r="AD7" t="n">
-        <v>912455.7199222391</v>
+        <v>1044569.312091856</v>
       </c>
       <c r="AE7" t="n">
-        <v>1248462.170702936</v>
+        <v>1429225.815949742</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.168593891996835e-07</v>
+        <v>1.40539122811588e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>25.43402777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>1129310.693358709</v>
+        <v>1292822.510006529</v>
       </c>
     </row>
     <row r="8">
@@ -9353,28 +9353,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>887.7847831033733</v>
+        <v>1019.89837527299</v>
       </c>
       <c r="AB8" t="n">
-        <v>1214.706306542447</v>
+        <v>1395.469951789253</v>
       </c>
       <c r="AC8" t="n">
-        <v>1098.776441497045</v>
+        <v>1262.288258144865</v>
       </c>
       <c r="AD8" t="n">
-        <v>887784.7831033734</v>
+        <v>1019898.37527299</v>
       </c>
       <c r="AE8" t="n">
-        <v>1214706.306542448</v>
+        <v>1395469.951789253</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.256893960726236e-07</v>
+        <v>1.420583089001009e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>26</v>
+        <v>25.15625</v>
       </c>
       <c r="AH8" t="n">
-        <v>1098776.441497044</v>
+        <v>1262288.258144865</v>
       </c>
     </row>
     <row r="9">
@@ -9459,28 +9459,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>853.5479418661113</v>
+        <v>985.7467853817489</v>
       </c>
       <c r="AB9" t="n">
-        <v>1167.861949938791</v>
+        <v>1348.742239838246</v>
       </c>
       <c r="AC9" t="n">
-        <v>1056.402844541173</v>
+        <v>1220.020173439706</v>
       </c>
       <c r="AD9" t="n">
-        <v>853547.9418661112</v>
+        <v>985746.7853817488</v>
       </c>
       <c r="AE9" t="n">
-        <v>1167861.949938791</v>
+        <v>1348742.239838246</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.323896722905728e-07</v>
+        <v>1.432110788317638e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>25</v>
+        <v>24.95659722222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>1056402.844541173</v>
+        <v>1220020.173439706</v>
       </c>
     </row>
     <row r="10">
@@ -9565,28 +9565,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>835.556287618844</v>
+        <v>967.7551311344814</v>
       </c>
       <c r="AB10" t="n">
-        <v>1143.244974861913</v>
+        <v>1324.125264761368</v>
       </c>
       <c r="AC10" t="n">
-        <v>1034.135279015491</v>
+        <v>1197.752607914024</v>
       </c>
       <c r="AD10" t="n">
-        <v>835556.287618844</v>
+        <v>967755.1311344814</v>
       </c>
       <c r="AE10" t="n">
-        <v>1143244.974861913</v>
+        <v>1324125.264761368</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.37055936085216e-07</v>
+        <v>1.440139007484576e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>25</v>
+        <v>24.81770833333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1034135.279015491</v>
+        <v>1197752.607914024</v>
       </c>
     </row>
     <row r="11">
@@ -9671,28 +9671,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>833.5166066390542</v>
+        <v>965.7154501546917</v>
       </c>
       <c r="AB11" t="n">
-        <v>1140.454193360991</v>
+        <v>1321.334483260446</v>
       </c>
       <c r="AC11" t="n">
-        <v>1031.610845784131</v>
+        <v>1195.228174682663</v>
       </c>
       <c r="AD11" t="n">
-        <v>833516.6066390543</v>
+        <v>965715.4501546917</v>
       </c>
       <c r="AE11" t="n">
-        <v>1140454.193360991</v>
+        <v>1321334.483260446</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.377977523807745e-07</v>
+        <v>1.441415288480346e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>25</v>
+        <v>24.79166666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>1031610.845784131</v>
+        <v>1195228.174682663</v>
       </c>
     </row>
     <row r="12">
@@ -9777,28 +9777,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>837.0198477578775</v>
+        <v>969.2186912735151</v>
       </c>
       <c r="AB12" t="n">
-        <v>1145.247482411855</v>
+        <v>1326.12777231131</v>
       </c>
       <c r="AC12" t="n">
-        <v>1035.946670055404</v>
+        <v>1199.563998953936</v>
       </c>
       <c r="AD12" t="n">
-        <v>837019.8477578775</v>
+        <v>969218.6912735151</v>
       </c>
       <c r="AE12" t="n">
-        <v>1145247.482411855</v>
+        <v>1326127.77231131</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.375345272436409e-07</v>
+        <v>1.440962414578621e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>25</v>
+        <v>24.80034722222222</v>
       </c>
       <c r="AH12" t="n">
-        <v>1035946.670055404</v>
+        <v>1199563.998953936</v>
       </c>
     </row>
   </sheetData>
@@ -10074,28 +10074,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>553.2820777886061</v>
+        <v>673.7560528403608</v>
       </c>
       <c r="AB2" t="n">
-        <v>757.0249479129373</v>
+        <v>921.8627555154178</v>
       </c>
       <c r="AC2" t="n">
-        <v>684.7755493753131</v>
+        <v>833.8814679715289</v>
       </c>
       <c r="AD2" t="n">
-        <v>553282.0777886061</v>
+        <v>673756.0528403608</v>
       </c>
       <c r="AE2" t="n">
-        <v>757024.9479129373</v>
+        <v>921862.7555154178</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.569910536420103e-07</v>
+        <v>1.918442046002691e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.97222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>684775.5493753131</v>
+        <v>833881.4679715289</v>
       </c>
     </row>
     <row r="3">
@@ -10180,28 +10180,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>545.1574908321808</v>
+        <v>657.1846721101572</v>
       </c>
       <c r="AB3" t="n">
-        <v>745.9085296076762</v>
+        <v>899.1890613226325</v>
       </c>
       <c r="AC3" t="n">
-        <v>674.7200664311151</v>
+        <v>813.3717193297732</v>
       </c>
       <c r="AD3" t="n">
-        <v>545157.4908321807</v>
+        <v>657184.6721101572</v>
       </c>
       <c r="AE3" t="n">
-        <v>745908.5296076762</v>
+        <v>899189.0613226325</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.684461938837076e-07</v>
+        <v>1.941405711753688e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.66840277777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>674720.0664311151</v>
+        <v>813371.7193297732</v>
       </c>
     </row>
   </sheetData>
@@ -10477,28 +10477,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1259.823801672665</v>
+        <v>1426.495489125427</v>
       </c>
       <c r="AB2" t="n">
-        <v>1723.746504952065</v>
+        <v>1951.794060760833</v>
       </c>
       <c r="AC2" t="n">
-        <v>1559.234557812854</v>
+        <v>1765.517574961988</v>
       </c>
       <c r="AD2" t="n">
-        <v>1259823.801672665</v>
+        <v>1426495.489125427</v>
       </c>
       <c r="AE2" t="n">
-        <v>1723746.504952065</v>
+        <v>1951794.060760833</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.515388491196358e-07</v>
+        <v>1.153923715622899e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.14236111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>1559234.557812854</v>
+        <v>1765517.574961988</v>
       </c>
     </row>
     <row r="3">
@@ -10583,28 +10583,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>965.7592248365845</v>
+        <v>1112.802319292166</v>
       </c>
       <c r="AB3" t="n">
-        <v>1321.394377711414</v>
+        <v>1522.585226629032</v>
       </c>
       <c r="AC3" t="n">
-        <v>1195.282352891293</v>
+        <v>1377.271829561344</v>
       </c>
       <c r="AD3" t="n">
-        <v>965759.2248365845</v>
+        <v>1112802.319292166</v>
       </c>
       <c r="AE3" t="n">
-        <v>1321394.377711414</v>
+        <v>1522585.226629032</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.76179333066689e-07</v>
+        <v>1.374671274341091e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.82118055555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>1195282.352891293</v>
+        <v>1377271.829561344</v>
       </c>
     </row>
     <row r="4">
@@ -10689,28 +10689,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>881.0725432959234</v>
+        <v>1008.572564625997</v>
       </c>
       <c r="AB4" t="n">
-        <v>1205.522323914774</v>
+        <v>1379.973478002536</v>
       </c>
       <c r="AC4" t="n">
-        <v>1090.468965281555</v>
+        <v>1248.270746066914</v>
       </c>
       <c r="AD4" t="n">
-        <v>881072.5432959234</v>
+        <v>1008572.564625997</v>
       </c>
       <c r="AE4" t="n">
-        <v>1205522.323914774</v>
+        <v>1379973.478002536</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.234233009340451e-07</v>
+        <v>1.458343851986968e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.22395833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1090468.965281555</v>
+        <v>1248270.746066914</v>
       </c>
     </row>
     <row r="5">
@@ -10795,28 +10795,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>828.5411645496455</v>
+        <v>956.1264372257399</v>
       </c>
       <c r="AB5" t="n">
-        <v>1133.646573993249</v>
+        <v>1308.21437273366</v>
       </c>
       <c r="AC5" t="n">
-        <v>1025.452936054292</v>
+        <v>1183.360229090363</v>
       </c>
       <c r="AD5" t="n">
-        <v>828541.1645496455</v>
+        <v>956126.4372257399</v>
       </c>
       <c r="AE5" t="n">
-        <v>1133646.573993249</v>
+        <v>1308214.37273366</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.464357655350478e-07</v>
+        <v>1.499100636780247e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.51215277777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>1025452.936054292</v>
+        <v>1183360.229090363</v>
       </c>
     </row>
     <row r="6">
@@ -10901,28 +10901,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>793.2202317115452</v>
+        <v>910.9913421518759</v>
       </c>
       <c r="AB6" t="n">
-        <v>1085.318915434579</v>
+        <v>1246.458544433738</v>
       </c>
       <c r="AC6" t="n">
-        <v>981.7376014001668</v>
+        <v>1127.498290368536</v>
       </c>
       <c r="AD6" t="n">
-        <v>793220.2317115453</v>
+        <v>910991.3421518758</v>
       </c>
       <c r="AE6" t="n">
-        <v>1085318.915434579</v>
+        <v>1246458.544433738</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.617359447022012e-07</v>
+        <v>1.526198390994157e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.06076388888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>981737.6014001667</v>
+        <v>1127498.290368536</v>
       </c>
     </row>
     <row r="7">
@@ -11007,28 +11007,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>755.2402054246681</v>
+        <v>882.740137246191</v>
       </c>
       <c r="AB7" t="n">
-        <v>1033.352967908369</v>
+        <v>1207.803999526583</v>
       </c>
       <c r="AC7" t="n">
-        <v>934.7312109711929</v>
+        <v>1092.532880975325</v>
       </c>
       <c r="AD7" t="n">
-        <v>755240.2054246682</v>
+        <v>882740.137246191</v>
       </c>
       <c r="AE7" t="n">
-        <v>1033352.967908369</v>
+        <v>1207803.999526583</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.71040443903039e-07</v>
+        <v>1.542677350467331e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.79166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>934731.2109711929</v>
+        <v>1092532.880975325</v>
       </c>
     </row>
     <row r="8">
@@ -11113,28 +11113,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>754.7523101817349</v>
+        <v>882.2522420032577</v>
       </c>
       <c r="AB8" t="n">
-        <v>1032.685408112568</v>
+        <v>1207.136439730782</v>
       </c>
       <c r="AC8" t="n">
-        <v>934.1273621453777</v>
+        <v>1091.92903214951</v>
       </c>
       <c r="AD8" t="n">
-        <v>754752.3101817349</v>
+        <v>882252.2420032577</v>
       </c>
       <c r="AE8" t="n">
-        <v>1032685.408112569</v>
+        <v>1207136.439730782</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.719609424870793e-07</v>
+        <v>1.544307621859063e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>25</v>
+        <v>24.765625</v>
       </c>
       <c r="AH8" t="n">
-        <v>934127.3621453777</v>
+        <v>1091929.03214951</v>
       </c>
     </row>
     <row r="9">
@@ -11219,28 +11219,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>757.7655024015327</v>
+        <v>885.2654342230555</v>
       </c>
       <c r="AB9" t="n">
-        <v>1036.808190640355</v>
+        <v>1211.259222258569</v>
       </c>
       <c r="AC9" t="n">
-        <v>937.8566720950736</v>
+        <v>1095.658342099206</v>
       </c>
       <c r="AD9" t="n">
-        <v>757765.5024015327</v>
+        <v>885265.4342230555</v>
       </c>
       <c r="AE9" t="n">
-        <v>1036808.190640355</v>
+        <v>1211259.222258569</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.719858208271882e-07</v>
+        <v>1.544351683248028e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>25</v>
+        <v>24.765625</v>
       </c>
       <c r="AH9" t="n">
-        <v>937856.6720950736</v>
+        <v>1095658.342099206</v>
       </c>
     </row>
   </sheetData>
@@ -11516,28 +11516,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1422.851054317319</v>
+        <v>1602.805163951609</v>
       </c>
       <c r="AB2" t="n">
-        <v>1946.807584275264</v>
+        <v>2193.02873609191</v>
       </c>
       <c r="AC2" t="n">
-        <v>1761.007000793638</v>
+        <v>1983.729151454459</v>
       </c>
       <c r="AD2" t="n">
-        <v>1422851.054317319</v>
+        <v>1602805.163951609</v>
       </c>
       <c r="AE2" t="n">
-        <v>1946807.584275264</v>
+        <v>2193028.736091909</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.049590216724763e-07</v>
+        <v>1.054995709256357e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.97395833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1761007.000793638</v>
+        <v>1983729.151454459</v>
       </c>
     </row>
     <row r="3">
@@ -11622,28 +11622,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1066.837677472768</v>
+        <v>1216.785212025581</v>
       </c>
       <c r="AB3" t="n">
-        <v>1459.694375874852</v>
+        <v>1664.859207868356</v>
       </c>
       <c r="AC3" t="n">
-        <v>1320.383193335279</v>
+        <v>1505.967381713973</v>
       </c>
       <c r="AD3" t="n">
-        <v>1066837.677472768</v>
+        <v>1216785.212025581</v>
       </c>
       <c r="AE3" t="n">
-        <v>1459694.375874852</v>
+        <v>1664859.207868356</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.390260141456256e-07</v>
+        <v>1.288796837506416e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.62847222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>1320383.193335279</v>
+        <v>1505967.381713973</v>
       </c>
     </row>
     <row r="4">
@@ -11728,28 +11728,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>960.2114712899935</v>
+        <v>1100.156814148981</v>
       </c>
       <c r="AB4" t="n">
-        <v>1313.803696559356</v>
+        <v>1505.283088611813</v>
       </c>
       <c r="AC4" t="n">
-        <v>1188.416115694799</v>
+        <v>1361.620983312785</v>
       </c>
       <c r="AD4" t="n">
-        <v>960211.4712899935</v>
+        <v>1100156.814148981</v>
       </c>
       <c r="AE4" t="n">
-        <v>1313803.696559356</v>
+        <v>1505283.088611813</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.893377000482765e-07</v>
+        <v>1.376536024544256e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.80555555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>1188416.115694799</v>
+        <v>1361620.983312785</v>
       </c>
     </row>
     <row r="5">
@@ -11834,28 +11834,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>903.2083007478279</v>
+        <v>1043.068302752244</v>
       </c>
       <c r="AB5" t="n">
-        <v>1235.809443821166</v>
+        <v>1427.172068751426</v>
       </c>
       <c r="AC5" t="n">
-        <v>1117.865524972321</v>
+        <v>1290.964769558368</v>
       </c>
       <c r="AD5" t="n">
-        <v>903208.300747828</v>
+        <v>1043068.302752244</v>
       </c>
       <c r="AE5" t="n">
-        <v>1235809.443821166</v>
+        <v>1427172.068751426</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.154685756721341e-07</v>
+        <v>1.422105989904995e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.94618055555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>1117865.524972321</v>
+        <v>1290964.769558368</v>
       </c>
     </row>
     <row r="6">
@@ -11940,28 +11940,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>867.5761904288466</v>
+        <v>997.4340902479878</v>
       </c>
       <c r="AB6" t="n">
-        <v>1187.056018504973</v>
+        <v>1364.733325963735</v>
       </c>
       <c r="AC6" t="n">
-        <v>1073.765058142444</v>
+        <v>1234.485092749008</v>
       </c>
       <c r="AD6" t="n">
-        <v>867576.1904288466</v>
+        <v>997434.0902479878</v>
       </c>
       <c r="AE6" t="n">
-        <v>1187056.018504973</v>
+        <v>1364733.325963735</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.327754056095769e-07</v>
+        <v>1.452287590097275e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.40798611111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>1073765.058142444</v>
+        <v>1234485.092749008</v>
       </c>
     </row>
     <row r="7">
@@ -12046,28 +12046,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>836.7572761208168</v>
+        <v>956.7836659552755</v>
       </c>
       <c r="AB7" t="n">
-        <v>1144.888220314186</v>
+        <v>1309.113622076296</v>
       </c>
       <c r="AC7" t="n">
-        <v>1035.621695428108</v>
+        <v>1184.173655337841</v>
       </c>
       <c r="AD7" t="n">
-        <v>836757.2761208167</v>
+        <v>956783.6659552755</v>
       </c>
       <c r="AE7" t="n">
-        <v>1144888.220314186</v>
+        <v>1309113.622076296</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.44817059115347e-07</v>
+        <v>1.473287182343735e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>25.04340277777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>1035621.695428108</v>
+        <v>1184173.655337841</v>
       </c>
     </row>
     <row r="8">
@@ -12152,28 +12152,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>802.5810381728322</v>
+        <v>932.524189337994</v>
       </c>
       <c r="AB8" t="n">
-        <v>1098.126783804547</v>
+        <v>1275.920735915957</v>
       </c>
       <c r="AC8" t="n">
-        <v>993.3231047888609</v>
+        <v>1154.148651646138</v>
       </c>
       <c r="AD8" t="n">
-        <v>802581.0381728322</v>
+        <v>932524.189337994</v>
       </c>
       <c r="AE8" t="n">
-        <v>1098126.783804547</v>
+        <v>1275920.735915957</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.522760590602169e-07</v>
+        <v>1.486295026933648e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>25</v>
+        <v>24.82638888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>993323.1047888609</v>
+        <v>1154148.651646138</v>
       </c>
     </row>
     <row r="9">
@@ -12258,28 +12258,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>793.3298617962532</v>
+        <v>923.2730129614149</v>
       </c>
       <c r="AB9" t="n">
-        <v>1085.468916153014</v>
+        <v>1263.262868264425</v>
       </c>
       <c r="AC9" t="n">
-        <v>981.8732862605619</v>
+        <v>1142.698833117838</v>
       </c>
       <c r="AD9" t="n">
-        <v>793329.8617962532</v>
+        <v>923273.0129614149</v>
       </c>
       <c r="AE9" t="n">
-        <v>1085468.916153014</v>
+        <v>1263262.868264425</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.541042453212143e-07</v>
+        <v>1.489483224137058e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>25</v>
+        <v>24.77430555555556</v>
       </c>
       <c r="AH9" t="n">
-        <v>981873.2862605619</v>
+        <v>1142698.833117838</v>
       </c>
     </row>
     <row r="10">
@@ -12364,28 +12364,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>794.4560160448572</v>
+        <v>924.399167210019</v>
       </c>
       <c r="AB10" t="n">
-        <v>1087.009770078373</v>
+        <v>1264.803722189784</v>
       </c>
       <c r="AC10" t="n">
-        <v>983.2670832498868</v>
+        <v>1144.092630107163</v>
       </c>
       <c r="AD10" t="n">
-        <v>794456.0160448572</v>
+        <v>924399.167210019</v>
       </c>
       <c r="AE10" t="n">
-        <v>1087009.770078373</v>
+        <v>1264803.722189784</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.556886734140788e-07</v>
+        <v>1.492246328380013e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>25</v>
+        <v>24.73090277777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>983267.0832498868</v>
+        <v>1144092.630107163</v>
       </c>
     </row>
   </sheetData>
@@ -12661,28 +12661,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1818.990185290306</v>
+        <v>2025.568099566701</v>
       </c>
       <c r="AB2" t="n">
-        <v>2488.822619697539</v>
+        <v>2771.471635584876</v>
       </c>
       <c r="AC2" t="n">
-        <v>2251.29288195809</v>
+        <v>2506.966272469526</v>
       </c>
       <c r="AD2" t="n">
-        <v>1818990.185290306</v>
+        <v>2025568.099566701</v>
       </c>
       <c r="AE2" t="n">
-        <v>2488822.619697539</v>
+        <v>2771471.635584876</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.23335556243839e-07</v>
+        <v>8.896357608289801e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.02777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>2251292.88195809</v>
+        <v>2506966.272469526</v>
       </c>
     </row>
     <row r="3">
@@ -12767,28 +12767,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1280.563192232359</v>
+        <v>1445.706064358784</v>
       </c>
       <c r="AB3" t="n">
-        <v>1752.123054073176</v>
+        <v>1978.078817305879</v>
       </c>
       <c r="AC3" t="n">
-        <v>1584.902888912583</v>
+        <v>1789.293751233262</v>
       </c>
       <c r="AD3" t="n">
-        <v>1280563.192232359</v>
+        <v>1445706.064358785</v>
       </c>
       <c r="AE3" t="n">
-        <v>1752123.054073176</v>
+        <v>1978078.817305879</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.706920544120343e-07</v>
+        <v>1.140132041459826e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>31</v>
+        <v>30.45138888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>1584902.888912583</v>
+        <v>1789293.751233262</v>
       </c>
     </row>
     <row r="4">
@@ -12873,28 +12873,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1141.203368901036</v>
+        <v>1285.842072088906</v>
       </c>
       <c r="AB4" t="n">
-        <v>1561.444795669767</v>
+        <v>1759.345850380647</v>
       </c>
       <c r="AC4" t="n">
-        <v>1412.422695872579</v>
+        <v>1591.436351677727</v>
       </c>
       <c r="AD4" t="n">
-        <v>1141203.368901036</v>
+        <v>1285842.072088906</v>
       </c>
       <c r="AE4" t="n">
-        <v>1561444.795669767</v>
+        <v>1759345.850380647</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.28124149578658e-07</v>
+        <v>1.237762796851794e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>29</v>
+        <v>28.046875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1412422.695872579</v>
+        <v>1591436.351677727</v>
       </c>
     </row>
     <row r="5">
@@ -12979,28 +12979,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1060.285564577622</v>
+        <v>1204.924178256942</v>
       </c>
       <c r="AB5" t="n">
-        <v>1450.729485952893</v>
+        <v>1648.630418194224</v>
       </c>
       <c r="AC5" t="n">
-        <v>1312.273899925169</v>
+        <v>1491.287444949091</v>
       </c>
       <c r="AD5" t="n">
-        <v>1060285.564577622</v>
+        <v>1204924.178256941</v>
       </c>
       <c r="AE5" t="n">
-        <v>1450729.485952893</v>
+        <v>1648630.418194224</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.590400746294338e-07</v>
+        <v>1.290317820442554e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.90972222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>1312273.899925169</v>
+        <v>1491287.444949091</v>
       </c>
     </row>
     <row r="6">
@@ -13085,28 +13085,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1019.266761543202</v>
+        <v>1153.568039407224</v>
       </c>
       <c r="AB6" t="n">
-        <v>1394.605750019327</v>
+        <v>1578.362683347097</v>
       </c>
       <c r="AC6" t="n">
-        <v>1261.506534578945</v>
+        <v>1427.725964094389</v>
       </c>
       <c r="AD6" t="n">
-        <v>1019266.761543202</v>
+        <v>1153568.039407224</v>
       </c>
       <c r="AE6" t="n">
-        <v>1394605.750019327</v>
+        <v>1578362.683347097</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.79344826013619e-07</v>
+        <v>1.324834552070276e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>27</v>
+        <v>26.20659722222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>1261506.534578945</v>
+        <v>1427725.964094389</v>
       </c>
     </row>
     <row r="7">
@@ -13191,28 +13191,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>983.6399380588377</v>
+        <v>1128.193210883585</v>
       </c>
       <c r="AB7" t="n">
-        <v>1345.859558383495</v>
+        <v>1543.643723502629</v>
       </c>
       <c r="AC7" t="n">
-        <v>1217.412611057127</v>
+        <v>1396.32053304911</v>
       </c>
       <c r="AD7" t="n">
-        <v>983639.9380588378</v>
+        <v>1128193.210883585</v>
       </c>
       <c r="AE7" t="n">
-        <v>1345859.558383495</v>
+        <v>1543643.723502629</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.911324047430243e-07</v>
+        <v>1.344872654672232e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>25.81597222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>1217412.611057127</v>
+        <v>1396320.53304911</v>
       </c>
     </row>
     <row r="8">
@@ -13297,28 +13297,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>955.243589583555</v>
+        <v>1089.459526593004</v>
       </c>
       <c r="AB8" t="n">
-        <v>1307.006421641133</v>
+        <v>1490.646587846706</v>
       </c>
       <c r="AC8" t="n">
-        <v>1182.267563154737</v>
+        <v>1348.381369638242</v>
       </c>
       <c r="AD8" t="n">
-        <v>955243.589583555</v>
+        <v>1089459.526593004</v>
       </c>
       <c r="AE8" t="n">
-        <v>1307006.421641133</v>
+        <v>1490646.587846706</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.026141181560979e-07</v>
+        <v>1.36439080650807e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>26</v>
+        <v>25.44270833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1182267.563154737</v>
+        <v>1348381.369638242</v>
       </c>
     </row>
     <row r="9">
@@ -13403,28 +13403,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>937.8792005741319</v>
+        <v>1072.095137583581</v>
       </c>
       <c r="AB9" t="n">
-        <v>1283.247698535664</v>
+        <v>1466.887864741237</v>
       </c>
       <c r="AC9" t="n">
-        <v>1160.776339236876</v>
+        <v>1326.890145720381</v>
       </c>
       <c r="AD9" t="n">
-        <v>937879.2005741319</v>
+        <v>1072095.137583581</v>
       </c>
       <c r="AE9" t="n">
-        <v>1283247.698535664</v>
+        <v>1466887.864741237</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.083314467613782e-07</v>
+        <v>1.37410988621321e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>26</v>
+        <v>25.26909722222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>1160776.339236876</v>
+        <v>1326890.145720381</v>
       </c>
     </row>
     <row r="10">
@@ -13509,28 +13509,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>916.7031189800613</v>
+        <v>1040.752312374804</v>
       </c>
       <c r="AB10" t="n">
-        <v>1254.27364947587</v>
+        <v>1424.003228542729</v>
       </c>
       <c r="AC10" t="n">
-        <v>1134.567532754016</v>
+        <v>1288.098359011694</v>
       </c>
       <c r="AD10" t="n">
-        <v>916703.1189800613</v>
+        <v>1040752.312374804</v>
       </c>
       <c r="AE10" t="n">
-        <v>1254273.64947587</v>
+        <v>1424003.228542729</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.149663713156544e-07</v>
+        <v>1.385388818216707e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>26</v>
+        <v>25.06076388888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>1134567.532754016</v>
+        <v>1288098.359011694</v>
       </c>
     </row>
     <row r="11">
@@ -13615,28 +13615,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>887.1038604266575</v>
+        <v>1021.405048782127</v>
       </c>
       <c r="AB11" t="n">
-        <v>1213.774638095977</v>
+        <v>1397.531448954199</v>
       </c>
       <c r="AC11" t="n">
-        <v>1097.9336901795</v>
+        <v>1264.153008913717</v>
       </c>
       <c r="AD11" t="n">
-        <v>887103.8604266576</v>
+        <v>1021405.048782127</v>
       </c>
       <c r="AE11" t="n">
-        <v>1213774.638095977</v>
+        <v>1397531.448954199</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.195778791618888e-07</v>
+        <v>1.393228075921265e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>25</v>
+        <v>24.921875</v>
       </c>
       <c r="AH11" t="n">
-        <v>1097933.6901795</v>
+        <v>1264153.008913717</v>
       </c>
     </row>
     <row r="12">
@@ -13721,28 +13721,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>872.3744348510618</v>
+        <v>1006.675623206532</v>
       </c>
       <c r="AB12" t="n">
-        <v>1193.621188207052</v>
+        <v>1377.377999065274</v>
       </c>
       <c r="AC12" t="n">
-        <v>1079.703657262429</v>
+        <v>1245.922975996647</v>
       </c>
       <c r="AD12" t="n">
-        <v>872374.4348510618</v>
+        <v>1006675.623206532</v>
       </c>
       <c r="AE12" t="n">
-        <v>1193621.188207052</v>
+        <v>1377377.999065274</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.229188695402831e-07</v>
+        <v>1.398907538135791e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>25</v>
+        <v>24.81770833333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>1079703.65726243</v>
+        <v>1245922.975996647</v>
       </c>
     </row>
     <row r="13">
@@ -13827,28 +13827,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>871.870028396818</v>
+        <v>1006.171216752288</v>
       </c>
       <c r="AB13" t="n">
-        <v>1192.931037043513</v>
+        <v>1376.687847901736</v>
       </c>
       <c r="AC13" t="n">
-        <v>1079.079373157306</v>
+        <v>1245.298691891523</v>
       </c>
       <c r="AD13" t="n">
-        <v>871870.0283968181</v>
+        <v>1006171.216752288</v>
       </c>
       <c r="AE13" t="n">
-        <v>1192931.037043513</v>
+        <v>1376687.847901736</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.225894761226949e-07</v>
+        <v>1.398347591156895e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>25</v>
+        <v>24.82638888888889</v>
       </c>
       <c r="AH13" t="n">
-        <v>1079079.373157306</v>
+        <v>1245298.691891523</v>
       </c>
     </row>
     <row r="14">
@@ -13933,28 +13933,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>874.8683932695081</v>
+        <v>1009.169581624978</v>
       </c>
       <c r="AB14" t="n">
-        <v>1197.03353214085</v>
+        <v>1380.790342999073</v>
       </c>
       <c r="AC14" t="n">
-        <v>1082.790331880441</v>
+        <v>1249.009650614659</v>
       </c>
       <c r="AD14" t="n">
-        <v>874868.3932695081</v>
+        <v>1009169.581624978</v>
       </c>
       <c r="AE14" t="n">
-        <v>1197033.53214085</v>
+        <v>1380790.342999073</v>
       </c>
       <c r="AF14" t="n">
-        <v>8.224718356164135e-07</v>
+        <v>1.398147610093003e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>25</v>
+        <v>24.83506944444444</v>
       </c>
       <c r="AH14" t="n">
-        <v>1082790.331880441</v>
+        <v>1249009.650614659</v>
       </c>
     </row>
   </sheetData>
@@ -14230,28 +14230,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1094.221750082942</v>
+        <v>1247.781499660814</v>
       </c>
       <c r="AB2" t="n">
-        <v>1497.162472120111</v>
+        <v>1707.269696070581</v>
       </c>
       <c r="AC2" t="n">
-        <v>1354.275387061694</v>
+        <v>1544.330272445672</v>
       </c>
       <c r="AD2" t="n">
-        <v>1094221.750082942</v>
+        <v>1247781.499660814</v>
       </c>
       <c r="AE2" t="n">
-        <v>1497162.472120111</v>
+        <v>1707269.696070581</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.044340958288371e-07</v>
+        <v>1.270261372023302e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.36284722222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>1354275.387061694</v>
+        <v>1544330.272445672</v>
       </c>
     </row>
     <row r="3">
@@ -14336,28 +14336,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>874.4192962423416</v>
+        <v>999.3252884458946</v>
       </c>
       <c r="AB3" t="n">
-        <v>1196.419057775519</v>
+        <v>1367.320946771887</v>
       </c>
       <c r="AC3" t="n">
-        <v>1082.234502086116</v>
+        <v>1236.825754658979</v>
       </c>
       <c r="AD3" t="n">
-        <v>874419.2962423416</v>
+        <v>999325.2884458946</v>
       </c>
       <c r="AE3" t="n">
-        <v>1196419.057775519</v>
+        <v>1367320.946771887</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.173726354202571e-07</v>
+        <v>1.473916284676144e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.03125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1082234.502086116</v>
+        <v>1236825.754658979</v>
       </c>
     </row>
     <row r="4">
@@ -14442,28 +14442,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>787.8604548572845</v>
+        <v>912.7663575522862</v>
       </c>
       <c r="AB4" t="n">
-        <v>1077.985432285913</v>
+        <v>1248.887198812732</v>
       </c>
       <c r="AC4" t="n">
-        <v>975.1040155906009</v>
+        <v>1129.695157382237</v>
       </c>
       <c r="AD4" t="n">
-        <v>787860.4548572844</v>
+        <v>912766.3575522862</v>
       </c>
       <c r="AE4" t="n">
-        <v>1077985.432285913</v>
+        <v>1248887.198812732</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.60771375560751e-07</v>
+        <v>1.552174483024824e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.66840277777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>975104.0155906009</v>
+        <v>1129695.157382237</v>
       </c>
     </row>
     <row r="5">
@@ -14548,28 +14548,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>744.5251781376686</v>
+        <v>859.8230239800675</v>
       </c>
       <c r="AB5" t="n">
-        <v>1018.692194860655</v>
+        <v>1176.447794124191</v>
       </c>
       <c r="AC5" t="n">
-        <v>921.469641526628</v>
+        <v>1064.169267807826</v>
       </c>
       <c r="AD5" t="n">
-        <v>744525.1781376686</v>
+        <v>859823.0239800676</v>
       </c>
       <c r="AE5" t="n">
-        <v>1018692.194860655</v>
+        <v>1176447.79412419</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.832979943433534e-07</v>
+        <v>1.592795307387629e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.01736111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>921469.6415266281</v>
+        <v>1064169.267807826</v>
       </c>
     </row>
     <row r="6">
@@ -14654,28 +14654,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>713.212909020334</v>
+        <v>838.0334708607642</v>
       </c>
       <c r="AB6" t="n">
-        <v>975.8493668544982</v>
+        <v>1146.63436625912</v>
       </c>
       <c r="AC6" t="n">
-        <v>882.7156728950924</v>
+        <v>1037.20119165479</v>
       </c>
       <c r="AD6" t="n">
-        <v>713212.909020334</v>
+        <v>838033.4708607642</v>
       </c>
       <c r="AE6" t="n">
-        <v>975849.3668544982</v>
+        <v>1146634.36625912</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.91570481466908e-07</v>
+        <v>1.607712559272275e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.78298611111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>882715.6728950924</v>
+        <v>1037201.19165479</v>
       </c>
     </row>
     <row r="7">
@@ -14760,28 +14760,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>712.040649985641</v>
+        <v>836.8612118260711</v>
       </c>
       <c r="AB7" t="n">
-        <v>974.2454303268125</v>
+        <v>1145.030429731435</v>
       </c>
       <c r="AC7" t="n">
-        <v>881.2648138184702</v>
+        <v>1035.750332578167</v>
       </c>
       <c r="AD7" t="n">
-        <v>712040.649985641</v>
+        <v>836861.2118260711</v>
       </c>
       <c r="AE7" t="n">
-        <v>974245.4303268126</v>
+        <v>1145030.429731435</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.929195332132107e-07</v>
+        <v>1.610145218810386e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.74826388888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>881264.8138184702</v>
+        <v>1035750.332578167</v>
       </c>
     </row>
   </sheetData>
@@ -15057,28 +15057,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>873.2996731179094</v>
+        <v>1002.823849619128</v>
       </c>
       <c r="AB2" t="n">
-        <v>1194.887140022385</v>
+        <v>1372.10783251473</v>
       </c>
       <c r="AC2" t="n">
-        <v>1080.848788413281</v>
+        <v>1241.155786744962</v>
       </c>
       <c r="AD2" t="n">
-        <v>873299.6731179093</v>
+        <v>1002823.849619128</v>
       </c>
       <c r="AE2" t="n">
-        <v>1194887.140022384</v>
+        <v>1372107.83251473</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.934973105407453e-07</v>
+        <v>1.480412345816181e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.00173611111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>1080848.788413281</v>
+        <v>1241155.786744962</v>
       </c>
     </row>
     <row r="3">
@@ -15163,28 +15163,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>710.1826568680641</v>
+        <v>839.5360621515882</v>
       </c>
       <c r="AB3" t="n">
-        <v>971.7032421744726</v>
+        <v>1148.690277952875</v>
       </c>
       <c r="AC3" t="n">
-        <v>878.9652485354061</v>
+        <v>1039.060890021983</v>
       </c>
       <c r="AD3" t="n">
-        <v>710182.6568680641</v>
+        <v>839536.0621515883</v>
       </c>
       <c r="AE3" t="n">
-        <v>971703.2421744727</v>
+        <v>1148690.277952875</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.901158890688462e-07</v>
+        <v>1.660671729922646e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.859375</v>
       </c>
       <c r="AH3" t="n">
-        <v>878965.2485354061</v>
+        <v>1039060.890021983</v>
       </c>
     </row>
     <row r="4">
@@ -15269,28 +15269,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>649.5730861543545</v>
+        <v>769.7601117929739</v>
       </c>
       <c r="AB4" t="n">
-        <v>888.77455361843</v>
+        <v>1053.219744374544</v>
       </c>
       <c r="AC4" t="n">
-        <v>803.9511576240069</v>
+        <v>952.7019301746325</v>
       </c>
       <c r="AD4" t="n">
-        <v>649573.0861543545</v>
+        <v>769760.1117929739</v>
       </c>
       <c r="AE4" t="n">
-        <v>888774.55361843</v>
+        <v>1053219.744374544</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.221983479105043e-07</v>
+        <v>1.720527343196197e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.95659722222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>803951.1576240069</v>
+        <v>952701.9301746325</v>
       </c>
     </row>
     <row r="5">
@@ -15375,28 +15375,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>646.4791110556274</v>
+        <v>766.6661366942469</v>
       </c>
       <c r="AB5" t="n">
-        <v>884.5412403918037</v>
+        <v>1048.986431147918</v>
       </c>
       <c r="AC5" t="n">
-        <v>800.1218658702373</v>
+        <v>948.8726384208629</v>
       </c>
       <c r="AD5" t="n">
-        <v>646479.1110556275</v>
+        <v>766666.1366942469</v>
       </c>
       <c r="AE5" t="n">
-        <v>884541.2403918038</v>
+        <v>1048986.431147918</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.24876305218775e-07</v>
+        <v>1.725523555543825e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.88715277777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>800121.8658702374</v>
+        <v>948872.638420863</v>
       </c>
     </row>
   </sheetData>
@@ -28093,28 +28093,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>718.8571278345098</v>
+        <v>844.2220526848156</v>
       </c>
       <c r="AB2" t="n">
-        <v>983.572036041414</v>
+        <v>1155.101856931748</v>
       </c>
       <c r="AC2" t="n">
-        <v>889.7013013736436</v>
+        <v>1044.86055690182</v>
       </c>
       <c r="AD2" t="n">
-        <v>718857.1278345098</v>
+        <v>844222.0526848156</v>
       </c>
       <c r="AE2" t="n">
-        <v>983572.036041414</v>
+        <v>1155101.856931748</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.670251120299925e-07</v>
+        <v>1.667321442852845e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.45659722222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>889701.3013736436</v>
+        <v>1044860.55690182</v>
       </c>
     </row>
     <row r="3">
@@ -28199,28 +28199,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>606.4935869329489</v>
+        <v>722.8916891367617</v>
       </c>
       <c r="AB3" t="n">
-        <v>829.8312822503304</v>
+        <v>989.0923008074374</v>
       </c>
       <c r="AC3" t="n">
-        <v>750.6333493478776</v>
+        <v>894.6947198181379</v>
       </c>
       <c r="AD3" t="n">
-        <v>606493.5869329489</v>
+        <v>722891.6891367617</v>
       </c>
       <c r="AE3" t="n">
-        <v>829831.2822503304</v>
+        <v>989092.3008074374</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.44975362524733e-07</v>
+        <v>1.817222665230745e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.19965277777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>750633.3493478775</v>
+        <v>894694.7198181378</v>
       </c>
     </row>
     <row r="4">
@@ -28305,28 +28305,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>605.8516252371186</v>
+        <v>722.2497274409315</v>
       </c>
       <c r="AB4" t="n">
-        <v>828.9529219367441</v>
+        <v>988.2139404938512</v>
       </c>
       <c r="AC4" t="n">
-        <v>749.8388185098336</v>
+        <v>893.900188980094</v>
       </c>
       <c r="AD4" t="n">
-        <v>605851.6252371186</v>
+        <v>722249.7274409315</v>
       </c>
       <c r="AE4" t="n">
-        <v>828952.9219367441</v>
+        <v>988213.9404938512</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.475810183294481e-07</v>
+        <v>1.82223343797033e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.12152777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>749838.8185098335</v>
+        <v>893900.1889800939</v>
       </c>
     </row>
   </sheetData>
@@ -28602,28 +28602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>513.1158053037093</v>
+        <v>622.2574217090231</v>
       </c>
       <c r="AB2" t="n">
-        <v>702.0676818882216</v>
+        <v>851.4000564422627</v>
       </c>
       <c r="AC2" t="n">
-        <v>635.0633276869893</v>
+        <v>770.1436300028968</v>
       </c>
       <c r="AD2" t="n">
-        <v>513115.8053037093</v>
+        <v>622257.4217090231</v>
       </c>
       <c r="AE2" t="n">
-        <v>702067.6818882216</v>
+        <v>851400.0564422627</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.712370889711711e-07</v>
+        <v>2.003272960594263e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.31076388888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>635063.3276869893</v>
+        <v>770143.6300028968</v>
       </c>
     </row>
   </sheetData>
@@ -28899,28 +28899,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1345.242710601289</v>
+        <v>1513.631300748454</v>
       </c>
       <c r="AB2" t="n">
-        <v>1840.62042456451</v>
+        <v>2071.017122384162</v>
       </c>
       <c r="AC2" t="n">
-        <v>1664.954194571063</v>
+        <v>1873.362154914603</v>
       </c>
       <c r="AD2" t="n">
-        <v>1345242.710601289</v>
+        <v>1513631.300748454</v>
       </c>
       <c r="AE2" t="n">
-        <v>1840620.42456451</v>
+        <v>2071017.122384162</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.275915650507852e-07</v>
+        <v>1.102653622702923e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.05381944444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>1664954.194571063</v>
+        <v>1873362.154914604</v>
       </c>
     </row>
     <row r="3">
@@ -29005,28 +29005,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1021.474255028521</v>
+        <v>1160.132167265124</v>
       </c>
       <c r="AB3" t="n">
-        <v>1397.626139993678</v>
+        <v>1587.344012671159</v>
       </c>
       <c r="AC3" t="n">
-        <v>1264.238662773288</v>
+        <v>1435.850127953137</v>
       </c>
       <c r="AD3" t="n">
-        <v>1021474.255028521</v>
+        <v>1160132.167265124</v>
       </c>
       <c r="AE3" t="n">
-        <v>1397626.139993678</v>
+        <v>1587344.012671159</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.571129530835868e-07</v>
+        <v>1.330217592145888e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.22916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1264238.662773288</v>
+        <v>1435850.127953137</v>
       </c>
     </row>
     <row r="4">
@@ -29111,28 +29111,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>921.2603360751639</v>
+        <v>1059.918158803216</v>
       </c>
       <c r="AB4" t="n">
-        <v>1260.509034955619</v>
+        <v>1450.226785163551</v>
       </c>
       <c r="AC4" t="n">
-        <v>1140.207821794996</v>
+        <v>1311.819176193618</v>
       </c>
       <c r="AD4" t="n">
-        <v>921260.3360751639</v>
+        <v>1059918.158803216</v>
       </c>
       <c r="AE4" t="n">
-        <v>1260509.034955619</v>
+        <v>1450226.785163551</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.056619318330041e-07</v>
+        <v>1.415516232659389e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>26.52777777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>1140207.821794996</v>
+        <v>1311819.176193618</v>
       </c>
     </row>
     <row r="5">
@@ -29217,28 +29217,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>865.444441163593</v>
+        <v>994.2773787760287</v>
       </c>
       <c r="AB5" t="n">
-        <v>1184.139265114113</v>
+        <v>1360.414174063519</v>
       </c>
       <c r="AC5" t="n">
-        <v>1071.126675601518</v>
+        <v>1230.578154644181</v>
       </c>
       <c r="AD5" t="n">
-        <v>865444.441163593</v>
+        <v>994277.3787760288</v>
       </c>
       <c r="AE5" t="n">
-        <v>1184139.265114113</v>
+        <v>1360414.174063519</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.313150940322399e-07</v>
+        <v>1.460587826683257e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.71180555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>1071126.675601518</v>
+        <v>1230578.154644181</v>
       </c>
     </row>
     <row r="6">
@@ -29323,28 +29323,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>831.2886757463874</v>
+        <v>959.9510211582314</v>
       </c>
       <c r="AB6" t="n">
-        <v>1137.40584002427</v>
+        <v>1313.44733719883</v>
       </c>
       <c r="AC6" t="n">
-        <v>1028.853423011476</v>
+        <v>1188.093766771488</v>
       </c>
       <c r="AD6" t="n">
-        <v>831288.6757463875</v>
+        <v>959951.0211582313</v>
       </c>
       <c r="AE6" t="n">
-        <v>1137405.84002427</v>
+        <v>1313447.33719883</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.468497824657502e-07</v>
+        <v>1.48788166145203e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>26</v>
+        <v>25.234375</v>
       </c>
       <c r="AH6" t="n">
-        <v>1028853.423011476</v>
+        <v>1188093.766771488</v>
       </c>
     </row>
     <row r="7">
@@ -29429,28 +29429,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>794.0216870990173</v>
+        <v>922.7692838568817</v>
       </c>
       <c r="AB7" t="n">
-        <v>1086.415502053434</v>
+        <v>1262.573643880643</v>
       </c>
       <c r="AC7" t="n">
-        <v>982.7295313311876</v>
+        <v>1142.075387341912</v>
       </c>
       <c r="AD7" t="n">
-        <v>794021.6870990173</v>
+        <v>922769.2838568817</v>
       </c>
       <c r="AE7" t="n">
-        <v>1086415.502053434</v>
+        <v>1262573.643880643</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.565251113950207e-07</v>
+        <v>1.504880832710552e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.94791666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>982729.5313311876</v>
+        <v>1142075.387341912</v>
       </c>
     </row>
     <row r="8">
@@ -29535,28 +29535,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>773.6859466627945</v>
+        <v>902.433543420659</v>
       </c>
       <c r="AB8" t="n">
-        <v>1058.591244839044</v>
+        <v>1234.749386666252</v>
       </c>
       <c r="AC8" t="n">
-        <v>957.5607821737484</v>
+        <v>1116.906638184473</v>
       </c>
       <c r="AD8" t="n">
-        <v>773685.9466627946</v>
+        <v>902433.543420659</v>
       </c>
       <c r="AE8" t="n">
-        <v>1058591.244839044</v>
+        <v>1234749.386666252</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.623598517416799e-07</v>
+        <v>1.515132241332104e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>25</v>
+        <v>24.78298611111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>957560.7821737484</v>
+        <v>1116906.638184473</v>
       </c>
     </row>
     <row r="9">
@@ -29641,28 +29641,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>773.7745598582417</v>
+        <v>902.522156616106</v>
       </c>
       <c r="AB9" t="n">
-        <v>1058.712489322393</v>
+        <v>1234.870631149601</v>
       </c>
       <c r="AC9" t="n">
-        <v>957.6704552537741</v>
+        <v>1117.016311264499</v>
       </c>
       <c r="AD9" t="n">
-        <v>773774.5598582417</v>
+        <v>902522.156616106</v>
       </c>
       <c r="AE9" t="n">
-        <v>1058712.489322393</v>
+        <v>1234870.631149601</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.640093352995962e-07</v>
+        <v>1.518030318874905e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>25</v>
+        <v>24.73090277777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>957670.4552537741</v>
+        <v>1117016.311264499</v>
       </c>
     </row>
   </sheetData>
@@ -29938,28 +29938,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1705.738182777079</v>
+        <v>1910.725636516247</v>
       </c>
       <c r="AB2" t="n">
-        <v>2333.866233533214</v>
+        <v>2614.339111147351</v>
       </c>
       <c r="AC2" t="n">
-        <v>2111.125315806635</v>
+        <v>2364.830255627435</v>
       </c>
       <c r="AD2" t="n">
-        <v>1705738.182777079</v>
+        <v>1910725.636516247</v>
       </c>
       <c r="AE2" t="n">
-        <v>2333866.233533214</v>
+        <v>2614339.111147351</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.425871136877953e-07</v>
+        <v>9.277634971984011e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.95138888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>2111125.315806635</v>
+        <v>2364830.255627435</v>
       </c>
     </row>
     <row r="3">
@@ -30044,28 +30044,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1220.790193522902</v>
+        <v>1384.746020172408</v>
       </c>
       <c r="AB3" t="n">
-        <v>1670.339000240304</v>
+        <v>1894.670595482735</v>
       </c>
       <c r="AC3" t="n">
-        <v>1510.924190392879</v>
+        <v>1713.845893036744</v>
       </c>
       <c r="AD3" t="n">
-        <v>1220790.193522902</v>
+        <v>1384746.020172408</v>
       </c>
       <c r="AE3" t="n">
-        <v>1670339.000240304</v>
+        <v>1894670.595482734</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.868041161847611e-07</v>
+        <v>1.174358499579979e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>30</v>
+        <v>29.98263888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>1510924.190392879</v>
+        <v>1713845.893036744</v>
       </c>
     </row>
     <row r="4">
@@ -30150,28 +30150,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1091.645224372674</v>
+        <v>1245.343144249764</v>
       </c>
       <c r="AB4" t="n">
-        <v>1493.637155975031</v>
+        <v>1703.933430624534</v>
       </c>
       <c r="AC4" t="n">
-        <v>1351.086522141688</v>
+        <v>1541.312415491318</v>
       </c>
       <c r="AD4" t="n">
-        <v>1091645.224372674</v>
+        <v>1245343.144249764</v>
       </c>
       <c r="AE4" t="n">
-        <v>1493637.155975031</v>
+        <v>1703933.430624534</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.417721692832099e-07</v>
+        <v>1.268347744606812e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27.76041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1351086.522141688</v>
+        <v>1541312.415491318</v>
       </c>
     </row>
     <row r="5">
@@ -30256,28 +30256,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1024.360279477556</v>
+        <v>1167.885633436802</v>
       </c>
       <c r="AB5" t="n">
-        <v>1401.574925967261</v>
+        <v>1597.952647146036</v>
       </c>
       <c r="AC5" t="n">
-        <v>1267.810582155708</v>
+        <v>1445.446289243043</v>
       </c>
       <c r="AD5" t="n">
-        <v>1024360.279477556</v>
+        <v>1167885.633436802</v>
       </c>
       <c r="AE5" t="n">
-        <v>1401574.925967261</v>
+        <v>1597952.647146036</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.720437427634087e-07</v>
+        <v>1.320108761721288e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26.67534722222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>1267810.582155708</v>
+        <v>1445446.289243043</v>
       </c>
     </row>
     <row r="6">
@@ -30362,28 +30362,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>988.4121918136559</v>
+        <v>1121.679728509037</v>
       </c>
       <c r="AB6" t="n">
-        <v>1352.389166507814</v>
+        <v>1534.73168956321</v>
       </c>
       <c r="AC6" t="n">
-        <v>1223.319042546424</v>
+        <v>1388.259051120752</v>
       </c>
       <c r="AD6" t="n">
-        <v>988412.1918136559</v>
+        <v>1121679.728509038</v>
       </c>
       <c r="AE6" t="n">
-        <v>1352389.166507814</v>
+        <v>1534731.68956321</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.902873477839987e-07</v>
+        <v>1.35130329319545e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>27</v>
+        <v>26.05902777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>1223319.042546424</v>
+        <v>1388259.051120752</v>
       </c>
     </row>
     <row r="7">
@@ -30468,28 +30468,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>947.0685511730484</v>
+        <v>1080.421339214451</v>
       </c>
       <c r="AB7" t="n">
-        <v>1295.820973430638</v>
+        <v>1478.280141138683</v>
       </c>
       <c r="AC7" t="n">
-        <v>1172.149638422575</v>
+        <v>1337.195159247616</v>
       </c>
       <c r="AD7" t="n">
-        <v>947068.5511730483</v>
+        <v>1080421.339214451</v>
       </c>
       <c r="AE7" t="n">
-        <v>1295820.973430638</v>
+        <v>1478280.141138683</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.040946015186975e-07</v>
+        <v>1.374912158368353e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>25.60763888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>1172149.638422576</v>
+        <v>1337195.159247616</v>
       </c>
     </row>
     <row r="8">
@@ -30574,28 +30574,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>923.4337122965624</v>
+        <v>1056.615908137373</v>
       </c>
       <c r="AB8" t="n">
-        <v>1263.482744184328</v>
+        <v>1445.708500117527</v>
       </c>
       <c r="AC8" t="n">
-        <v>1142.897724388544</v>
+        <v>1307.732109930933</v>
       </c>
       <c r="AD8" t="n">
-        <v>923433.7122965624</v>
+        <v>1056615.908137372</v>
       </c>
       <c r="AE8" t="n">
-        <v>1263482.744184328</v>
+        <v>1445708.500117527</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.135603991821766e-07</v>
+        <v>1.391097617481735e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>26</v>
+        <v>25.3125</v>
       </c>
       <c r="AH8" t="n">
-        <v>1142897.724388544</v>
+        <v>1307732.109930933</v>
       </c>
     </row>
     <row r="9">
@@ -30680,28 +30680,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>899.7908545638378</v>
+        <v>1022.885825341376</v>
       </c>
       <c r="AB9" t="n">
-        <v>1231.133543185146</v>
+        <v>1399.557512769813</v>
       </c>
       <c r="AC9" t="n">
-        <v>1113.635885730335</v>
+        <v>1265.985708042368</v>
       </c>
       <c r="AD9" t="n">
-        <v>899790.8545638378</v>
+        <v>1022885.825341376</v>
       </c>
       <c r="AE9" t="n">
-        <v>1231133.543185146</v>
+        <v>1399557.512769813</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.211045687485585e-07</v>
+        <v>1.40399730669992e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>26</v>
+        <v>25.078125</v>
       </c>
       <c r="AH9" t="n">
-        <v>1113635.885730335</v>
+        <v>1265985.708042368</v>
       </c>
     </row>
     <row r="10">
@@ -30786,28 +30786,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>868.8702160899146</v>
+        <v>1002.137663276745</v>
       </c>
       <c r="AB10" t="n">
-        <v>1188.82656150283</v>
+        <v>1371.168962088678</v>
       </c>
       <c r="AC10" t="n">
-        <v>1075.366623001557</v>
+        <v>1240.306520794659</v>
       </c>
       <c r="AD10" t="n">
-        <v>868870.2160899146</v>
+        <v>1002137.663276745</v>
       </c>
       <c r="AE10" t="n">
-        <v>1188826.56150283</v>
+        <v>1371168.962088678</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.25659539052789e-07</v>
+        <v>1.411785798303352e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>25</v>
+        <v>24.93923611111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>1075366.623001557</v>
+        <v>1240306.520794659</v>
       </c>
     </row>
     <row r="11">
@@ -30892,28 +30892,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>852.2149221485926</v>
+        <v>985.4823693354232</v>
       </c>
       <c r="AB11" t="n">
-        <v>1166.038053552602</v>
+        <v>1348.38045413845</v>
       </c>
       <c r="AC11" t="n">
-        <v>1054.753018266228</v>
+        <v>1219.692916059329</v>
       </c>
       <c r="AD11" t="n">
-        <v>852214.9221485925</v>
+        <v>985482.3693354232</v>
       </c>
       <c r="AE11" t="n">
-        <v>1166038.053552602</v>
+        <v>1348380.45413845</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.300247189276765e-07</v>
+        <v>1.419249769423307e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>25</v>
+        <v>24.80902777777778</v>
       </c>
       <c r="AH11" t="n">
-        <v>1054753.018266228</v>
+        <v>1219692.916059329</v>
       </c>
     </row>
     <row r="12">
@@ -30998,28 +30998,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>852.6435224952651</v>
+        <v>985.910969682096</v>
       </c>
       <c r="AB12" t="n">
-        <v>1166.624483455432</v>
+        <v>1348.966884041281</v>
       </c>
       <c r="AC12" t="n">
-        <v>1055.283480122192</v>
+        <v>1220.223377915293</v>
       </c>
       <c r="AD12" t="n">
-        <v>852643.5224952651</v>
+        <v>985910.969682096</v>
       </c>
       <c r="AE12" t="n">
-        <v>1166624.483455433</v>
+        <v>1348966.884041281</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.301433379460159e-07</v>
+        <v>1.41945259472548e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>25</v>
+        <v>24.80902777777778</v>
       </c>
       <c r="AH12" t="n">
-        <v>1055283.480122192</v>
+        <v>1220223.377915293</v>
       </c>
     </row>
     <row r="13">
@@ -31104,28 +31104,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>855.0345868151875</v>
+        <v>988.3020340020182</v>
       </c>
       <c r="AB13" t="n">
-        <v>1169.896043144263</v>
+        <v>1352.238443730111</v>
       </c>
       <c r="AC13" t="n">
-        <v>1058.242806745983</v>
+        <v>1223.182704539084</v>
       </c>
       <c r="AD13" t="n">
-        <v>855034.5868151875</v>
+        <v>988302.0340020182</v>
       </c>
       <c r="AE13" t="n">
-        <v>1169896.043144263</v>
+        <v>1352238.443730111</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.302619569643552e-07</v>
+        <v>1.419655420027653e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>25</v>
+        <v>24.80034722222222</v>
       </c>
       <c r="AH13" t="n">
-        <v>1058242.806745983</v>
+        <v>1223182.704539084</v>
       </c>
     </row>
   </sheetData>
@@ -31401,28 +31401,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>475.6566036487551</v>
+        <v>597.5548489408206</v>
       </c>
       <c r="AB2" t="n">
-        <v>650.8143496005698</v>
+        <v>817.600906580212</v>
       </c>
       <c r="AC2" t="n">
-        <v>588.7015414983672</v>
+        <v>739.5702235662753</v>
       </c>
       <c r="AD2" t="n">
-        <v>475656.6036487551</v>
+        <v>597554.8489408207</v>
       </c>
       <c r="AE2" t="n">
-        <v>650814.3496005698</v>
+        <v>817600.9065802121</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.510913754849748e-07</v>
+        <v>2.038626881279788e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.82118055555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>588701.5414983672</v>
+        <v>739570.2235662753</v>
       </c>
     </row>
   </sheetData>
@@ -31698,28 +31698,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>939.7658568838584</v>
+        <v>1089.647078775986</v>
       </c>
       <c r="AB2" t="n">
-        <v>1285.829104932034</v>
+        <v>1490.903205017679</v>
       </c>
       <c r="AC2" t="n">
-        <v>1163.111379829803</v>
+        <v>1348.613495626582</v>
       </c>
       <c r="AD2" t="n">
-        <v>939765.8568838584</v>
+        <v>1089647.078775986</v>
       </c>
       <c r="AE2" t="n">
-        <v>1285829.104932034</v>
+        <v>1490903.205017679</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.619174166483575e-07</v>
+        <v>1.403781437495344e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1163111.379829803</v>
+        <v>1348613.495626582</v>
       </c>
     </row>
     <row r="3">
@@ -31804,28 +31804,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>768.2569202085346</v>
+        <v>890.0888405385463</v>
       </c>
       <c r="AB3" t="n">
-        <v>1051.163011332582</v>
+        <v>1217.858819573091</v>
       </c>
       <c r="AC3" t="n">
-        <v>950.8414888475519</v>
+        <v>1101.628083108623</v>
       </c>
       <c r="AD3" t="n">
-        <v>768256.9202085346</v>
+        <v>890088.8405385462</v>
       </c>
       <c r="AE3" t="n">
-        <v>1051163.011332582</v>
+        <v>1217858.819573091</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.65279623028828e-07</v>
+        <v>1.59421932943086e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.21527777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>950841.4888475519</v>
+        <v>1101628.083108623</v>
       </c>
     </row>
     <row r="4">
@@ -31910,28 +31910,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>698.5950568037198</v>
+        <v>820.3416362791598</v>
       </c>
       <c r="AB4" t="n">
-        <v>955.8485765576013</v>
+        <v>1122.427617675913</v>
       </c>
       <c r="AC4" t="n">
-        <v>864.623729952846</v>
+        <v>1015.304701181978</v>
       </c>
       <c r="AD4" t="n">
-        <v>698595.0568037198</v>
+        <v>820341.6362791598</v>
       </c>
       <c r="AE4" t="n">
-        <v>955848.5765576013</v>
+        <v>1122427.617675913</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.031912917492686e-07</v>
+        <v>1.664069021341486e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.11284722222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>864623.7299528461</v>
+        <v>1015304.701181978</v>
       </c>
     </row>
     <row r="5">
@@ -32016,28 +32016,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>667.6038400918051</v>
+        <v>789.4356709132657</v>
       </c>
       <c r="AB5" t="n">
-        <v>913.445026616373</v>
+        <v>1080.140712387334</v>
       </c>
       <c r="AC5" t="n">
-        <v>826.2671153042523</v>
+        <v>977.0535987840972</v>
       </c>
       <c r="AD5" t="n">
-        <v>667603.8400918051</v>
+        <v>789435.6709132657</v>
       </c>
       <c r="AE5" t="n">
-        <v>913445.026616373</v>
+        <v>1080140.712387334</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.134334517343909e-07</v>
+        <v>1.682939510127816e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>24.82638888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>826267.1153042524</v>
+        <v>977053.5987840971</v>
       </c>
     </row>
     <row r="6">
@@ -32122,28 +32122,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>670.83777882928</v>
+        <v>792.6696096507404</v>
       </c>
       <c r="AB6" t="n">
-        <v>917.8698442682939</v>
+        <v>1084.565530039255</v>
       </c>
       <c r="AC6" t="n">
-        <v>830.2696345697445</v>
+        <v>981.0561180495893</v>
       </c>
       <c r="AD6" t="n">
-        <v>670837.7788292799</v>
+        <v>792669.6096507404</v>
       </c>
       <c r="AE6" t="n">
-        <v>917869.8442682939</v>
+        <v>1084565.530039255</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.130676603063511e-07</v>
+        <v>1.682265564099733e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.84375</v>
       </c>
       <c r="AH6" t="n">
-        <v>830269.6345697446</v>
+        <v>981056.1180495892</v>
       </c>
     </row>
   </sheetData>
@@ -32419,28 +32419,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1175.865063288795</v>
+        <v>1331.200039797212</v>
       </c>
       <c r="AB2" t="n">
-        <v>1608.870455097132</v>
+        <v>1821.40662285146</v>
       </c>
       <c r="AC2" t="n">
-        <v>1455.322116926527</v>
+        <v>1647.574131126766</v>
       </c>
       <c r="AD2" t="n">
-        <v>1175865.063288795</v>
+        <v>1331200.039797212</v>
       </c>
       <c r="AE2" t="n">
-        <v>1608870.455097132</v>
+        <v>1821406.62285146</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.773151836392608e-07</v>
+        <v>1.20997414627403e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.23958333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1455322.116926527</v>
+        <v>1647574.131126766</v>
       </c>
     </row>
     <row r="3">
@@ -32525,28 +32525,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>919.1550633489966</v>
+        <v>1054.977170521038</v>
       </c>
       <c r="AB3" t="n">
-        <v>1257.628507933599</v>
+        <v>1443.466307014856</v>
       </c>
       <c r="AC3" t="n">
-        <v>1137.602208229112</v>
+        <v>1305.703908591044</v>
       </c>
       <c r="AD3" t="n">
-        <v>919155.0633489966</v>
+        <v>1054977.170521038</v>
       </c>
       <c r="AE3" t="n">
-        <v>1257628.507933599</v>
+        <v>1443466.307014856</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.971817333158098e-07</v>
+        <v>1.424106989616491e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.39583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1137602.208229112</v>
+        <v>1305703.908591043</v>
       </c>
     </row>
     <row r="4">
@@ -32631,28 +32631,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>830.5256048588167</v>
+        <v>966.3476225223067</v>
       </c>
       <c r="AB4" t="n">
-        <v>1136.361772771584</v>
+        <v>1322.199449383293</v>
       </c>
       <c r="AC4" t="n">
-        <v>1027.909000072028</v>
+        <v>1196.010589652733</v>
       </c>
       <c r="AD4" t="n">
-        <v>830525.6048588167</v>
+        <v>966347.6225223066</v>
       </c>
       <c r="AE4" t="n">
-        <v>1136361.772771584</v>
+        <v>1322199.449383293</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.413550095449848e-07</v>
+        <v>1.503019323910166e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>25.95486111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>1027909.000072028</v>
+        <v>1196010.589652733</v>
       </c>
     </row>
     <row r="5">
@@ -32737,28 +32737,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>788.1852243262276</v>
+        <v>914.2935672573666</v>
       </c>
       <c r="AB5" t="n">
-        <v>1078.429796201139</v>
+        <v>1250.97679450696</v>
       </c>
       <c r="AC5" t="n">
-        <v>975.5059700374263</v>
+        <v>1131.585324996173</v>
       </c>
       <c r="AD5" t="n">
-        <v>788185.2243262277</v>
+        <v>914293.5672573666</v>
       </c>
       <c r="AE5" t="n">
-        <v>1078429.796201139</v>
+        <v>1250976.79450696</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.636932039023353e-07</v>
+        <v>1.542924877926557e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25.28645833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>975505.9700374263</v>
+        <v>1131585.324996173</v>
       </c>
     </row>
     <row r="6">
@@ -32843,28 +32843,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>743.4624393515733</v>
+        <v>869.6560336287323</v>
       </c>
       <c r="AB6" t="n">
-        <v>1017.238108768792</v>
+        <v>1189.901751727263</v>
       </c>
       <c r="AC6" t="n">
-        <v>920.1543313705507</v>
+        <v>1076.33919858001</v>
       </c>
       <c r="AD6" t="n">
-        <v>743462.4393515732</v>
+        <v>869656.0336287323</v>
       </c>
       <c r="AE6" t="n">
-        <v>1017238.108768792</v>
+        <v>1189901.751727263</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.781576878612054e-07</v>
+        <v>1.56876462292591e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>25</v>
+        <v>24.86979166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>920154.3313705507</v>
+        <v>1076339.19858001</v>
       </c>
     </row>
     <row r="7">
@@ -32949,28 +32949,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>733.3334588884252</v>
+        <v>859.5270531655843</v>
       </c>
       <c r="AB7" t="n">
-        <v>1003.379190840033</v>
+        <v>1176.042833798504</v>
       </c>
       <c r="AC7" t="n">
-        <v>907.6180891177986</v>
+        <v>1063.802956327258</v>
       </c>
       <c r="AD7" t="n">
-        <v>733333.4588884251</v>
+        <v>859527.0531655843</v>
       </c>
       <c r="AE7" t="n">
-        <v>1003379.190840033</v>
+        <v>1176042.833798504</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.821322764968601e-07</v>
+        <v>1.575864935464863e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>25</v>
+        <v>24.75694444444444</v>
       </c>
       <c r="AH7" t="n">
-        <v>907618.0891177986</v>
+        <v>1063802.956327258</v>
       </c>
     </row>
     <row r="8">
@@ -33055,28 +33055,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>736.9721867443643</v>
+        <v>863.1657810215236</v>
       </c>
       <c r="AB8" t="n">
-        <v>1008.357858821873</v>
+        <v>1181.021501780343</v>
       </c>
       <c r="AC8" t="n">
-        <v>912.1216000150556</v>
+        <v>1068.306467224515</v>
       </c>
       <c r="AD8" t="n">
-        <v>736972.1867443643</v>
+        <v>863165.7810215235</v>
       </c>
       <c r="AE8" t="n">
-        <v>1008357.858821873</v>
+        <v>1181021.501780343</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.819813427512024e-07</v>
+        <v>1.57559530334313e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>25</v>
+        <v>24.75694444444444</v>
       </c>
       <c r="AH8" t="n">
-        <v>912121.6000150556</v>
+        <v>1068306.467224515</v>
       </c>
     </row>
   </sheetData>
